--- a/Unit-3/cuisines.xlsx
+++ b/Unit-3/cuisines.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="315" windowWidth="20775" windowHeight="9705"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="131">
   <si>
     <t>Vegetarian Friendly</t>
   </si>
@@ -400,18 +400,6 @@
   </si>
   <si>
     <t>Specific</t>
-  </si>
-  <si>
-    <t>European_traditional</t>
-  </si>
-  <si>
-    <t>European_national</t>
-  </si>
-  <si>
-    <t>Asian_traditional</t>
-  </si>
-  <si>
-    <t>Asian_national</t>
   </si>
   <si>
     <t>cuisine</t>
@@ -429,8 +417,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +457,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -547,6 +540,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -581,6 +575,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -756,28 +751,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:O1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,39 +780,39 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -825,7 +820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -833,7 +828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,39 +836,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -881,7 +876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -889,7 +884,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -897,47 +892,47 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -945,55 +940,55 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -1001,15 +996,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -1017,31 +1012,31 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -1049,7 +1044,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -1057,7 +1052,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -1065,7 +1060,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -1073,23 +1068,23 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -1097,7 +1092,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -1105,7 +1100,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>40</v>
       </c>
@@ -1113,7 +1108,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1121,15 +1116,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -1137,15 +1132,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -1153,39 +1148,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
@@ -1193,7 +1188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>51</v>
       </c>
@@ -1201,31 +1196,31 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>55</v>
       </c>
@@ -1233,7 +1228,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -1241,31 +1236,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
@@ -1273,23 +1268,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>63</v>
       </c>
@@ -1297,7 +1292,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
@@ -1305,7 +1300,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -1313,7 +1308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>66</v>
       </c>
@@ -1321,15 +1316,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
@@ -1337,95 +1332,95 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -1433,7 +1428,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
@@ -1441,7 +1436,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
@@ -1449,31 +1444,31 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>86</v>
       </c>
@@ -1481,79 +1476,79 @@
         <v>63</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>96</v>
       </c>
@@ -1561,7 +1556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>97</v>
       </c>
@@ -1569,23 +1564,23 @@
         <v>63</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B102" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>100</v>
       </c>
@@ -1593,71 +1588,71 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B105" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>109</v>
       </c>
@@ -1665,23 +1660,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>112</v>
       </c>
@@ -1689,7 +1684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>113</v>
       </c>
@@ -1697,15 +1692,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>115</v>
       </c>
@@ -1713,39 +1708,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>120</v>
       </c>
@@ -1753,36 +1748,36 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B125" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1792,24 +1787,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
